--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3470" uniqueCount="157">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>form Config</t>
+    <t>Extension : Form Config</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T01:13:32+00:00</t>
+    <t>2022-05-23T10:52:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -404,7 +404,7 @@
 </t>
   </si>
   <si>
-    <t>Site Config</t>
+    <t>Extension : Site Config</t>
   </si>
   <si>
     <t>base64Binary
@@ -430,10 +430,76 @@
 </t>
   </si>
   <si>
-    <t>Time Period</t>
+    <t>Extension : Time Period</t>
   </si>
   <si>
     <t>Description of time period</t>
+  </si>
+  <si>
+    <t>freqency</t>
+  </si>
+  <si>
+    <t>weekly-on-day</t>
+  </si>
+  <si>
+    <t>comma delimited day of week</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.url</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t>trigger</t>
+  </si>
+  <si>
+    <t>start-time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time
+</t>
+  </si>
+  <si>
+    <t>end-time</t>
+  </si>
+  <si>
+    <t>max-occurence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>max-occurence-unit</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>delay-unit</t>
+  </si>
+  <si>
+    <t>conditional-logic-list</t>
+  </si>
+  <si>
+    <t>conditionalLogicId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/conditional-logic-id}
+</t>
+  </si>
+  <si>
+    <t>Extension : Conditional Logic Id</t>
+  </si>
+  <si>
+    <t>list of conditional logic ids</t>
   </si>
 </sst>
 </file>
@@ -738,7 +804,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ58"/>
+  <dimension ref="A1:AJ109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -747,7 +813,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.69921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="21.41796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -6447,15 +6513,17 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>79</v>
@@ -6470,24 +6538,22 @@
         <v>73</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>73</v>
@@ -6529,27 +6595,27 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -6560,7 +6626,7 @@
         <v>74</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>73</v>
@@ -6572,13 +6638,13 @@
         <v>73</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -6629,21 +6695,5167 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE64" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AF58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI58" t="s" s="2">
+      <c r="AF64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI64" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AJ58" t="s" s="2">
+      <c r="AJ64" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
         <v>106</v>
       </c>
     </row>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T10:52:07+00:00</t>
+    <t>2022-05-23T10:54:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T10:54:56+00:00</t>
+    <t>2022-05-23T11:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:06:18+00:00</t>
+    <t>2022-05-23T11:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:08:31+00:00</t>
+    <t>2022-05-23T11:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:30:07+00:00</t>
+    <t>2022-05-23T11:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:46:37+00:00</t>
+    <t>2022-05-23T12:36:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -486,7 +486,7 @@
     <t>delay-unit</t>
   </si>
   <si>
-    <t>conditional-logic-list</t>
+    <t>conditional-reference-list</t>
   </si>
   <si>
     <t>conditionalLogicId</t>
@@ -814,7 +814,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.69921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.00390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -11064,7 +11064,7 @@
         <v>74</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T12:36:41+00:00</t>
+    <t>2022-05-24T14:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T14:28:11+00:00</t>
+    <t>2022-05-24T16:07:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T16:07:29+00:00</t>
+    <t>2022-05-24T18:19:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3470" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3910" uniqueCount="157">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T18:19:26+00:00</t>
+    <t>2022-05-24T18:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -489,17 +489,16 @@
     <t>conditional-reference-list</t>
   </si>
   <si>
-    <t>conditionalLogicId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/conditional-logic-id}
-</t>
-  </si>
-  <si>
-    <t>Extension : Conditional Logic Id</t>
-  </si>
-  <si>
-    <t>list of conditional logic ids</t>
+    <t>conditional-logic-id</t>
+  </si>
+  <si>
+    <t>location-restrictions</t>
+  </si>
+  <si>
+    <t>state-code</t>
+  </si>
+  <si>
+    <t>state codes</t>
   </si>
 </sst>
 </file>
@@ -804,7 +803,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ109"/>
+  <dimension ref="A1:AJ123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11380,13 +11379,13 @@
         <v>73</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -11457,7 +11456,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -11465,7 +11464,7 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>79</v>
@@ -11480,24 +11479,22 @@
         <v>73</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="M106" s="2"/>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="R106" t="s" s="2">
         <v>73</v>
@@ -11539,10 +11536,10 @@
         <v>73</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -11554,12 +11551,12 @@
         <v>73</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -11582,13 +11579,13 @@
         <v>73</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -11627,39 +11624,39 @@
         <v>73</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AC107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -11699,7 +11696,7 @@
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="R108" t="s" s="2">
         <v>73</v>
@@ -11761,7 +11758,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -11772,7 +11769,7 @@
         <v>74</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>73</v>
@@ -11784,7 +11781,7 @@
         <v>73</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>108</v>
@@ -11856,6 +11853,1420 @@
         <v>111</v>
       </c>
       <c r="AJ109" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F117" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="R118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="R120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F121" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P121" s="2"/>
+      <c r="Q121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="R122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F123" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P123" s="2"/>
+      <c r="Q123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
         <v>106</v>
       </c>
     </row>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T18:58:53+00:00</t>
+    <t>2022-05-25T15:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T15:25:26+00:00</t>
+    <t>2022-05-25T17:10:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T17:10:47+00:00</t>
+    <t>2022-05-25T17:52:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T17:52:37+00:00</t>
+    <t>2022-05-25T18:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T18:55:20+00:00</t>
+    <t>2022-05-25T19:52:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T19:52:35+00:00</t>
+    <t>2022-05-25T20:34:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T20:34:56+00:00</t>
+    <t>2022-06-09T20:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-09T20:33:24+00:00</t>
+    <t>2022-06-10T16:46:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T16:46:34+00:00</t>
+    <t>2022-06-10T18:20:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T18:20:06+00:00</t>
+    <t>2022-06-10T20:09:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T20:09:36+00:00</t>
+    <t>2022-06-10T20:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T20:31:51+00:00</t>
+    <t>2022-06-28T15:12:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Extension : Form Config</t>
+    <t>Extension : PlanDefinition.action - Form Config</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T15:12:49+00:00</t>
+    <t>2022-07-04T18:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Extension : PlanDefinition.action - Form Config</t>
+    <t>Profile PlanDefinitionS37.action - Extension : - Form Config</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T18:23:06+00:00</t>
+    <t>2022-07-04T18:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -404,7 +404,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : Site Config</t>
+    <t>Profile PlanDefinitionS37 - Extension : Site Config</t>
   </si>
   <si>
     <t>base64Binary
@@ -430,7 +430,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : Time Period</t>
+    <t>Profile PlanDefinitionS37 - Extension : Time Period</t>
   </si>
   <si>
     <t>Description of time period</t>
@@ -822,7 +822,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.2578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="54.93359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Profile PlanDefinitionS37.action - Extension : - Form Config</t>
+    <t>Extension : PlanDefinitionS37.action - Form Config</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T18:28:37+00:00</t>
+    <t>2022-07-04T20:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -404,7 +404,7 @@
 </t>
   </si>
   <si>
-    <t>Profile PlanDefinitionS37 - Extension : Site Config</t>
+    <t>Extension : PlanDefinitionS37 - Site Config</t>
   </si>
   <si>
     <t>base64Binary
@@ -430,7 +430,7 @@
 </t>
   </si>
   <si>
-    <t>Profile PlanDefinitionS37 - Extension : Time Period</t>
+    <t>Extension : PlanDefinitionS37 - Time Period</t>
   </si>
   <si>
     <t>Description of time period</t>
@@ -822,7 +822,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="54.93359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="47.3359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T20:25:49+00:00</t>
+    <t>2022-07-27T15:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -812,42 +812,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.69921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.00390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="47.3359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T15:29:27+00:00</t>
+    <t>2022-07-27T16:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T16:10:03+00:00</t>
+    <t>2022-07-27T16:26:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-form-config.xlsx
+++ b/StructureDefinition-form-config.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T16:26:41+00:00</t>
+    <t>2022-08-01T20:41:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
